--- a/Protokoll 8/Versuch 6 Berechnungen.xlsx
+++ b/Protokoll 8/Versuch 6 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="700" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="-920" yWindow="2400" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,8 +122,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -201,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="107">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -238,6 +272,23 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -274,6 +325,23 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -605,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14:Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Protokoll 8/Versuch 6 Berechnungen.xlsx
+++ b/Protokoll 8/Versuch 6 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-920" yWindow="2400" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Seite 1</t>
   </si>
@@ -67,6 +67,51 @@
   </si>
   <si>
     <t>Aluminum länger</t>
+  </si>
+  <si>
+    <t>stahl</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Stei</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>dStei</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>M Vert</t>
+  </si>
+  <si>
+    <t>Al Länger</t>
   </si>
 </sst>
 </file>
@@ -122,8 +167,52 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -235,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -289,6 +378,28 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -342,6 +453,28 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R40"/>
+  <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L19"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -979,7 +1112,7 @@
         <v>0.49</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F23" si="1">STDEV(C15:D15)</f>
+        <f t="shared" ref="F15:F22" si="1">STDEV(C15:D15)</f>
         <v>1.4142135623730963E-2</v>
       </c>
       <c r="H15">
@@ -1014,7 +1147,7 @@
         <v>1.1549999999999998</v>
       </c>
       <c r="R15">
-        <f t="shared" ref="R15:R19" si="4">STDEV(O15:P15)</f>
+        <f t="shared" ref="R15:R18" si="4">STDEV(O15:P15)</f>
         <v>7.0710678118654814E-3</v>
       </c>
     </row>
@@ -1217,7 +1350,7 @@
         <v>2.8049999999999997</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L15:L19" si="6">STDEV(I19:J19)</f>
+        <f t="shared" ref="L19" si="6">STDEV(I19:J19)</f>
         <v>7.0710678118656384E-3</v>
       </c>
       <c r="N19" s="1">
@@ -1505,7 +1638,7 @@
         <v>7.0710678118654745E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1513,7 +1646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:14">
       <c r="B35" s="1">
         <v>0.19955000000000001</v>
       </c>
@@ -1532,7 +1665,7 @@
         <v>7.0710678118654814E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:14">
       <c r="B36" s="1">
         <v>0.39950999999999998</v>
       </c>
@@ -1551,7 +1684,7 @@
         <v>7.0710678118654814E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:14">
       <c r="B37" s="1">
         <v>0.59906000000000004</v>
       </c>
@@ -1570,9 +1703,10 @@
         <v>2.12132034355966E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:14">
       <c r="B38" s="1">
-        <v>0.79886999999999997</v>
+        <f>B37+0.05003</f>
+        <v>0.64909000000000006</v>
       </c>
       <c r="C38">
         <v>2.5099999999999998</v>
@@ -1589,9 +1723,10 @@
         <v>7.0710678118656384E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:14">
       <c r="B39" s="1">
-        <v>0.99838000000000005</v>
+        <f>B38+0.05003</f>
+        <v>0.69912000000000007</v>
       </c>
       <c r="C39">
         <v>2.71</v>
@@ -1608,9 +1743,10 @@
         <v>7.0710678118653244E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:14">
       <c r="B40" s="1">
-        <v>1.1982699999999999</v>
+        <f>B39+0.14994</f>
+        <v>0.84906000000000004</v>
       </c>
       <c r="C40">
         <v>2.9</v>
@@ -1625,6 +1761,245 @@
       <c r="F40">
         <f t="shared" si="11"/>
         <v>7.0710678118653244E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>2.0349499999999998</v>
+      </c>
+      <c r="D43">
+        <v>9.91</v>
+      </c>
+      <c r="E43">
+        <v>5.9160000000000004</v>
+      </c>
+      <c r="F43">
+        <v>713</v>
+      </c>
+      <c r="G43">
+        <f>(9.81*F43^3)/(4*E43^3*D43*C43)</f>
+        <v>212895.12280704806</v>
+      </c>
+      <c r="I43">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J43">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <f>SQRT((I43/C43)^2+(J43/D43)^2+(K43/E43)^2+(L43/F43)^2)</f>
+        <v>4.3168790111785373E-3</v>
+      </c>
+      <c r="N43">
+        <f>G43*M43</f>
+        <v>919.04248722802288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="D44">
+        <v>9.9139999999999997</v>
+      </c>
+      <c r="E44">
+        <v>5.9480000000000004</v>
+      </c>
+      <c r="F44">
+        <v>515</v>
+      </c>
+      <c r="G44">
+        <f>(9.81*F44^3)/(4*E44^3*D44*C44)</f>
+        <v>68270.26547576896</v>
+      </c>
+      <c r="I44">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J44">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K44">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ref="M44" si="12">SQRT((I44/C44)^2+(J44/D44)^2+(K44/E44)^2+(L44/F44)^2)</f>
+        <v>4.1684292998470287E-3</v>
+      </c>
+      <c r="N44">
+        <f t="shared" ref="N44" si="13">G44*M44</f>
+        <v>284.57977491753036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>2.6</v>
+      </c>
+      <c r="D45">
+        <v>9.9019999999999992</v>
+      </c>
+      <c r="E45">
+        <v>5.9139999999999997</v>
+      </c>
+      <c r="F45">
+        <v>608</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G44:G47" si="14">(9.81*F45^3)/(4*E45^3*D45*C45)</f>
+        <v>103509.3361635741</v>
+      </c>
+      <c r="I45">
+        <v>0.2</v>
+      </c>
+      <c r="J45">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K45">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <f>SQRT((I45/C45)^2+(J45/D45)^2+(K45/E45)^2+(L45/F45)^2)</f>
+        <v>7.6946363744444607E-2</v>
+      </c>
+      <c r="N45">
+        <f>G45*M45</f>
+        <v>7964.6670313883669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46">
+        <v>1.048</v>
+      </c>
+      <c r="D46">
+        <v>5.9139999999999997</v>
+      </c>
+      <c r="E46">
+        <v>9.9019999999999992</v>
+      </c>
+      <c r="F46">
+        <v>608</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="14"/>
+        <v>91602.723266970264</v>
+      </c>
+      <c r="I46">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J46">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K46">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f>SQRT((I46/C46)^2+(J46/D46)^2+(K46/E46)^2+(L46/F46)^2)</f>
+        <v>6.0300033440863314E-3</v>
+      </c>
+      <c r="N46">
+        <f>G46*M46</f>
+        <v>552.36472762724554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>3.8403</v>
+      </c>
+      <c r="D47">
+        <v>9.9139999999999997</v>
+      </c>
+      <c r="E47">
+        <v>5.9480000000000004</v>
+      </c>
+      <c r="F47">
+        <v>609</v>
+      </c>
+      <c r="G47">
+        <f>(9.81*F47^3)/(4*E47^3*D47*C47)</f>
+        <v>69140.727921596335</v>
+      </c>
+      <c r="I47">
+        <v>0.06</v>
+      </c>
+      <c r="J47">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K47">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <f>SQRT((I47/C47)^2+(J47/D47)^2+(K47/E47)^2+(L47/F47)^2)</f>
+        <v>1.5774502552279891E-2</v>
+      </c>
+      <c r="N47">
+        <f>G47*M47</f>
+        <v>1090.6605890657108</v>
       </c>
     </row>
   </sheetData>

--- a/Protokoll 8/Versuch 6 Berechnungen.xlsx
+++ b/Protokoll 8/Versuch 6 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="6360" yWindow="0" windowWidth="22500" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,8 +167,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -324,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -400,6 +410,11 @@
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -475,6 +490,11 @@
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -806,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView tabSelected="1" topLeftCell="F43" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1208,8 +1228,8 @@
     </row>
     <row r="17" spans="1:18">
       <c r="B17">
-        <f>B16+0.14994</f>
-        <v>0.44955000000000001</v>
+        <f>B16+0.04994</f>
+        <v>0.34954999999999997</v>
       </c>
       <c r="C17">
         <v>0.7</v>
@@ -1373,8 +1393,8 @@
     </row>
     <row r="20" spans="1:18">
       <c r="B20">
-        <f>B19+0.14994</f>
-        <v>0.54958000000000007</v>
+        <f>B19+0.04994</f>
+        <v>0.44958000000000004</v>
       </c>
       <c r="C20">
         <v>0.89</v>
@@ -1802,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="C43">
-        <v>2.0349499999999998</v>
+        <v>2.0329999999999999</v>
       </c>
       <c r="D43">
         <v>9.91</v>
@@ -1815,7 +1835,7 @@
       </c>
       <c r="G43">
         <f>(9.81*F43^3)/(4*E43^3*D43*C43)</f>
-        <v>212895.12280704806</v>
+        <v>213099.32619586936</v>
       </c>
       <c r="I43">
         <v>8.0000000000000002E-3</v>
@@ -1830,12 +1850,12 @@
         <v>1</v>
       </c>
       <c r="M43">
-        <f>SQRT((I43/C43)^2+(J43/D43)^2+(K43/E43)^2+(L43/F43)^2)</f>
-        <v>4.3168790111785373E-3</v>
+        <f>SQRT((I43/C43)^2+(J43/D43)^2+(3*K43/E43)^2+(3*L43/F43)^2)</f>
+        <v>6.3337309326923514E-3</v>
       </c>
       <c r="N43">
         <f>G43*M43</f>
-        <v>919.04248722802288</v>
+        <v>1349.7137940626753</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -1871,12 +1891,12 @@
         <v>1</v>
       </c>
       <c r="M44">
-        <f t="shared" ref="M44" si="12">SQRT((I44/C44)^2+(J44/D44)^2+(K44/E44)^2+(L44/F44)^2)</f>
-        <v>4.1684292998470287E-3</v>
+        <f t="shared" ref="M44:M47" si="12">SQRT((I44/C44)^2+(J44/D44)^2+(3*K44/E44)^2+(3*L44/F44)^2)</f>
+        <v>7.6563035364855562E-3</v>
       </c>
       <c r="N44">
         <f t="shared" ref="N44" si="13">G44*M44</f>
-        <v>284.57977491753036</v>
+        <v>522.69787499893766</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -1896,7 +1916,7 @@
         <v>608</v>
       </c>
       <c r="G45">
-        <f t="shared" ref="G44:G47" si="14">(9.81*F45^3)/(4*E45^3*D45*C45)</f>
+        <f t="shared" ref="G45:G46" si="14">(9.81*F45^3)/(4*E45^3*D45*C45)</f>
         <v>103509.3361635741</v>
       </c>
       <c r="I45">
@@ -1912,12 +1932,12 @@
         <v>1</v>
       </c>
       <c r="M45">
-        <f>SQRT((I45/C45)^2+(J45/D45)^2+(K45/E45)^2+(L45/F45)^2)</f>
-        <v>7.6946363744444607E-2</v>
+        <f t="shared" si="12"/>
+        <v>7.7123942282862415E-2</v>
       </c>
       <c r="N45">
         <f>G45*M45</f>
-        <v>7964.6670313883669</v>
+        <v>7983.0480680168921</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -1953,12 +1973,12 @@
         <v>1</v>
       </c>
       <c r="M46">
-        <f>SQRT((I46/C46)^2+(J46/D46)^2+(K46/E46)^2+(L46/F46)^2)</f>
-        <v>6.0300033440863314E-3</v>
+        <f t="shared" si="12"/>
+        <v>7.7011477222655791E-3</v>
       </c>
       <c r="N46">
         <f>G46*M46</f>
-        <v>552.36472762724554</v>
+        <v>705.4461036407522</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -1994,17 +2014,20 @@
         <v>1</v>
       </c>
       <c r="M47">
-        <f>SQRT((I47/C47)^2+(J47/D47)^2+(K47/E47)^2+(L47/F47)^2)</f>
-        <v>1.5774502552279891E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.6777523767696777E-2</v>
       </c>
       <c r="N47">
         <f>G47*M47</f>
-        <v>1090.6605890657108</v>
+        <v>1160.0102060204388</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="E15:E23" formulaRange="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
